--- a/DOC/FRM/结算收款业务流转.xlsx
+++ b/DOC/FRM/结算收款业务流转.xlsx
@@ -1,357 +1,620 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t xml:space="preserve"> fib_income_expenses,</t>
   </si>
   <si>
+    <t>收支项目定义</t>
+  </si>
+  <si>
     <t xml:space="preserve"> fib_settle_account,</t>
   </si>
   <si>
+    <t>结算账户定义</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fib_settle_account_rela,</t>
+  </si>
+  <si>
+    <t>结算账户对应支付方式关联</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fis_rp_account,</t>
+  </si>
+  <si>
+    <t>应收应付表</t>
+  </si>
+  <si>
     <t xml:space="preserve"> fis_rp_account_transfer,</t>
   </si>
   <si>
+    <t>应收应付转交表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fis_rp_bill_list,</t>
+  </si>
+  <si>
+    <t>收付款单表</t>
+  </si>
+  <si>
+    <t>fis_rp_bill_list_detail,</t>
+  </si>
+  <si>
+    <t>收付款单 结算方式 明细表</t>
+  </si>
+  <si>
+    <t>收款1000</t>
+  </si>
+  <si>
+    <t>200现金</t>
+  </si>
+  <si>
+    <t>800刷卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fis_rp_check_off,</t>
+  </si>
+  <si>
+    <t>收款单核销记录</t>
+  </si>
+  <si>
     <t xml:space="preserve"> fis_rp_internal_transfer,</t>
   </si>
   <si>
+    <t>内部转账</t>
+  </si>
+  <si>
     <t xml:space="preserve"> fis_rp_verification,</t>
   </si>
   <si>
+    <t>应收应付核销表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fis_settle_account_bala</t>
+  </si>
+  <si>
     <t>结算账户余额表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收应付核销表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款单核销记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收付款单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收应付表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收应付转交表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算账户定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收支项目定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fib_settle_account_rela,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200现金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800刷卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收付款单 结算方式 明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算账户对应支付方式关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、审核业务单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务单据类型有很多种，维修，保险，采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  1.1 假如是维修工单，业务单据更新（维修工单的状态为已出厂 update wb_repair..rps_maintain set status = 6 where id = '' and status = 5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fis_rp_account,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  1.2 更新 fis_rp_account，单据状态为已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2、收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fis_rp_bill_list,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fis_rp_bill_list_detail,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2.1 生成收款单记录  fis_rp_bill_list， 生成明细记录  fis_rp_bill_list_detail， 更新应收账款单的已收及未收金额 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  假如客户A维修款1000元，本次收款500，现金200，刷卡300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fis_rp_account</t>
+  </si>
+  <si>
+    <t>应收单号</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>应收</t>
+  </si>
+  <si>
+    <t>已收</t>
+  </si>
+  <si>
+    <t>未收</t>
+  </si>
+  <si>
+    <t>RPD001</t>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fis_rp_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  假如客户A维修款1000元，本次收款500，现金200，刷卡300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> fis_rp_bill_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单号</t>
   </si>
   <si>
     <t>收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKD001</t>
   </si>
   <si>
     <t>fis_rp_bill_list_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水号</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
+    <t>收款方式</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>SKD001-01</t>
+  </si>
+  <si>
+    <t>现金账户</t>
+  </si>
+  <si>
+    <t>现金</t>
+  </si>
+  <si>
+    <t>SKD001-02</t>
+  </si>
+  <si>
+    <t>招商卡</t>
+  </si>
+  <si>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>付款单号</t>
+  </si>
+  <si>
+    <t>FKD001</t>
+  </si>
+  <si>
+    <t>FKD001-01</t>
+  </si>
+  <si>
+    <t>fis_rp_check_off</t>
+  </si>
+  <si>
+    <t>核销金额</t>
   </si>
   <si>
     <t>SDK001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPD001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fis_rp_check_off,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fis_rp_check_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核销金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> fis_settle_account_bala</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> fis_settle_account_bala </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期初 2018，4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fis_settle_account_bala</t>
   </si>
   <si>
     <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期初余额方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期初余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本期借方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本期贷方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年度累计借方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年度累计贷方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期末余额方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期末余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+  </si>
+  <si>
+    <t>5月份</t>
+  </si>
+  <si>
+    <t>6月份</t>
   </si>
   <si>
     <t>每个账户每个月度一条记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fis_settle_account_bala</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FKD001-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKD001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKD001-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKD0011-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FKD001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,24 +622,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,21 +1212,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
@@ -687,66 +1236,66 @@
     <col min="14" max="14" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -755,95 +1304,95 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>1000</v>
@@ -855,34 +1404,34 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:7">
       <c r="D22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:9">
       <c r="D25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -891,186 +1440,186 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
       </c>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I26">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:9">
       <c r="D32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I33">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:7">
       <c r="D36" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" t="s">
         <v>69</v>
       </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" t="s">
-        <v>62</v>
-      </c>
       <c r="L39" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15">
       <c r="D40" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>2018</v>
@@ -1103,18 +1652,18 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>2018</v>
@@ -1151,18 +1700,18 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>100000</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F42">
         <v>2018</v>
@@ -1199,13 +1748,13 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>